--- a/Lattice.xlsx
+++ b/Lattice.xlsx
@@ -152,6 +152,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -178,20 +192,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -326,8 +326,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -519,8 +551,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -712,8 +776,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -905,8 +1001,46 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7394824710581587E-4"/>
+                  <c:y val="2.4707270934049053E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1198,6 +1332,7 @@
         <c:axId val="359972176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-2"/>
           <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1512,8 +1647,46 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.6730541425684626E-3"/>
+                  <c:y val="-3.7446481733952867E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1705,8 +1878,46 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5761549717789702E-2"/>
+                  <c:y val="-1.7417656715172088E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1898,8 +2109,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2091,8 +2334,46 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0292523169117133E-2"/>
+                  <c:y val="1.8803928660860857E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2384,6 +2665,8 @@
         <c:axId val="371939240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-2"/>
+          <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2697,8 +2980,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2890,8 +3205,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3072,6 +3419,58 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8641358154012458E-2"/>
+                  <c:y val="-9.9353826802287622E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>sheet1!$B$171:$B$191</c:f>
@@ -3262,8 +3661,46 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4338203196747501E-3"/>
+                  <c:y val="4.6400377504720675E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3555,6 +3992,8 @@
         <c:axId val="374068496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-2"/>
+          <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5421,15 +5860,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5462,16 +5901,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230187</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5503,16 +5942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5541,7 +5980,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F254" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F254" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:F254"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Column1"/>
@@ -5878,7 +6317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -10985,7 +11424,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11000,7 +11439,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11014,8 +11453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
